--- a/export/output.xlsx
+++ b/export/output.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:BV2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,70 +443,501 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>data_ingresso_cch</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>data_dimissione_cch</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>nome</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>cognome</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>sesso</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>numero di telefono</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>età al momento dell'intervento</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>data_di_nascita</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>data_dimissione_cch</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Diagnosi</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Anamnesi</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Motivo ricovero</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>classe_nyha</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>angor</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>STEMI/NSTEMI</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>scompenso_cardiaco_nei_3_mesi_precedenti</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>fumo</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>diabete</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>ipertensione</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>dislipidemia</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>BPCO</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>stroke_pregresso</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>TIA_pregresso</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>vasculopatiaperif</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>neoplasia_pregressa</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>irradiazionetoracica</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>insufficienza_renale_cronica</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>familiarita_cardiovascolare</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>limitazione_mobilita</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>endocardite</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>ritmo_all_ingresso</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>fibrillazione_atriale</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>dialisi</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>elettivo_urgenza_emergenza</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>pm</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>crt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>icd</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>pci_pregressa</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>REDO</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>Anno REDO</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>Tipo di REDO</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>Terapia</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>lasix</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>lasix_dosaggio</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>nitrati</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>antiaggregante</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>dapt</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>anticoagorali</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>aceinib</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>betabloc</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>sartanici</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>caantag</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>esami_all_ingresso</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Decorso_post_operatorio</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>IABP/ECMO/IMPELLA</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>Inotropi</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>secondo_intervento</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>Tipo_secondo_intervento</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>II_Run</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>Causa_II_Run_CEC</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>LCOS</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>Impianto_PM_post_intervento</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>Stroke_TIA_post_op</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>Necessità_di_trasfusioni</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>IRA</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>Insufficienza_respiratoria</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>FA_di_nuova_insorgenza</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>Ritmo_alla_dimissione</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>H_Stay_giorni (da intervento a dimissione)</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>Morte</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>Causa_morte</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>data_morte</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>esami_alla_dimissione</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>terapia_alla_dimissione</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>12025003002</v>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025003002</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>20/01/2025</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>27/01/2025</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>MASSIMO</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>RICCA</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>012025003002</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>MASSIMO</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>RICCA</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3287351755</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
         <is>
           <t>17/02/1966</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>In data 21/01/2025 Sostituzione valvolare aortica con protesi biologica (Inspiris Resilia n.29) e sostituzione di radice aortica con protesi vascolare (Vascutek n.32) con reimpianto degli osti coronarici secondo Bentall in ministernotomia.</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Stenosi aortica</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>IIb</t>
+        </is>
+      </c>
+      <c r="N2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="inlineStr"/>
+      <c r="AS2" t="inlineStr"/>
+      <c r="AT2" t="inlineStr"/>
+      <c r="AU2" t="inlineStr"/>
+      <c r="AV2" t="inlineStr"/>
+      <c r="AW2" t="inlineStr"/>
+      <c r="AX2" t="inlineStr"/>
+      <c r="AY2" t="inlineStr"/>
+      <c r="AZ2" t="inlineStr"/>
+      <c r="BA2" t="inlineStr"/>
+      <c r="BB2" t="inlineStr"/>
+      <c r="BC2" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD2" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE2" t="inlineStr"/>
+      <c r="BF2" t="inlineStr"/>
+      <c r="BG2" t="inlineStr"/>
+      <c r="BH2" t="inlineStr"/>
+      <c r="BI2" t="inlineStr"/>
+      <c r="BJ2" t="inlineStr"/>
+      <c r="BK2" t="inlineStr"/>
+      <c r="BL2" t="b">
+        <v>1</v>
+      </c>
+      <c r="BM2" t="inlineStr"/>
+      <c r="BN2" t="inlineStr"/>
+      <c r="BO2" t="inlineStr"/>
+      <c r="BP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>6</v>
+      </c>
+      <c r="BR2" t="inlineStr"/>
+      <c r="BS2" t="inlineStr"/>
+      <c r="BT2" t="inlineStr"/>
+      <c r="BU2" t="inlineStr"/>
+      <c r="BV2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -519,7 +950,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -615,8 +1046,186 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>12025003002</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025003002</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MASSIMO</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>RICCA</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17/02/1966</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:X2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>n_cartella</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>data_intervento</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>intervento text</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>primo operatore</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>redo</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>cec</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cannulazionearteriosa</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>statopaz</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>cardioplegia</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>approcciochirurgico</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>entratainsala</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>iniziointervento</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>iniziocec</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>inizioclamp</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>inizioacc</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>fineacc</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>fineclamp</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>finecec</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>fineintervento</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>uscitasala</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>intervento</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>protesi</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>modello</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>numero</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025003002</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
@@ -634,350 +1243,13 @@
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>012025003002</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>MASSIMO</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>RICCA</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>17/02/1966</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>21/01/2025</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>CircoloCoronarico: Dominanzadestra
-CoronariaSinistra:
--TroncoComune:breve,esentedalesioni.
--Arteriadiscendenteanteriore(IVA):esentedalesioniaterosclerotichestenosanti.
--Arteriacirconflessa(CX):esentedalesioniaterosclerotichestenosanti.
-CoronariaDestra:
-Coronariadestra(CDX):esentedalesioniaterosclerotichestenosanti.
-AltreOpacizzazioni:
-Aortografia:aneurisma dell'aorta ascendente; insufficienza valvolare aortica di grado severo.
-Conclusioni:
-Alberocoronaricoesentedalesionistenosanti.Aneurisma dell'aortaascendente;insufficienzavalvolareaorticadigrado
-severo.</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AA3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>n_cartella</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>nome</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>cognome</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>data_di_nascita</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>data_intervento</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>intervento text</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>primo operatore</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>redo</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>cec</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>cannulazionearteriosa</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>statopaz</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>cardioplegia</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>approcciochirurgico</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>entratainsala</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>iniziointervento</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>iniziocec</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>inizioclamp</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>inizioacc</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>fineacc</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>fineclamp</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>finecec</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>fineintervento</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>uscitasala</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>intervento</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>protesi</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>modello</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>numero</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>12025003002</v>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>21/01/2025</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Ministernotomia mediana al IV spazio intercostale. Incisione longitudinale del pericardio. L'aorta appare aneurismatica in corrispondenza della radice aortica e del tratto tubulare fino all'origine del tronco anonimo. Cannulazione del tronco brachiocefalico e dell'atrio destro per la conduzione della circolazione extracorporea. Posizionamento di un vent nella vena polmonare superiore destra. In bypass cardiopolmonare totale ipotermico si clampa l'aorta e dopo aortotomia trasversale, si infonde soluzione cardioplegica ematica fredda (Del Nido) per via anterograda selettivamente negli osti coronarici. Rimozione dell'aorta ascendente e della radice aortica. La valvola aortica appare bicuspide ed insufficiente per retrazione dei lembi e mancata coaptazione centrale. Si procede dunque alla rimozione della valvola aortica nativa ed alla preparazione dei bottoni aortici contenenti gli osti delle coronarie. Impianto di bioprotesi valvolare aortica (Inspiris Resilia n.29) su protesi tubulare vascolare (Gelweave Vascutek 32 mm) mediante sutura in polipropilene 2-0. Anastomosi prossimale del condotto valvolato a livello del piano valvolare mediante sutura continua di prolene 2-0. Confezionamento del bottone dell'ostio coronarico sinistro sul tubo valvolato mediante una sutura continua di polipropilene 5-0. Si esegue l'anastomosi distale tra tubo valvolato e moncone aortico usando una sutura continua di polipropilene 4-0. In ultimo si confeziona il bottone coronarico destro sul tubo valvolato usando una sutura continua di polipropilene 5-0. Posizionamento di vent aortico e declampaggio aortico dopo deareazione delle cavita' cardiache. Il cuore riprende a battere in ritmo sinusale. Posizionamento degli elettrodi epicardici temporanei ventricolari. Progressivo svezzamento dalla CEC in normotermia con necessità di supporto inotropo con adrenalina a medio dosaggio e supporto meccanico mediante contropulsatore aortico. Decannulazione e somministrazione di solfato di protamina. Accurata e prolungata revisione dell'emostasi. Posizionamento di due tubi di drenaggio (retrocardiaco e retrosternale). Chiusura a strati della parete toracica secondo routine.</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>MAISANO FRANCESCO</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>tronco brachiocefalico</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Del Nido</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>ministernotomia mediana al IV spazio intercostale</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>15:30</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>21:20</t>
-        </is>
-      </c>
+      <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>SOSTITUZIONE DELLA VALVOLA AORTICA CON BIOPROTESI; RESEZIONE DELL'AORTA CON ANASTOMOSI</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>bioprotesi valvolare aortica; protesi tubulare vascolare</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>Inspiris Resilia; Gelweave Vascutek</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>29; 32</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>012025003002</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>MASSIMO</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>RICCA</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>17/02/1966</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/export/output.xlsx
+++ b/export/output.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BV2"/>
+  <dimension ref="A1:BV4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -808,11 +808,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2025003002</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
           <t>20/01/2025</t>
@@ -833,12 +829,12 @@
           <t>RICCA</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3287351755</t>
-        </is>
-      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
@@ -851,14 +847,10 @@
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Stenosi aortica</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>IIb</t>
+          <t>II</t>
         </is>
       </c>
       <c r="N2" t="b">
@@ -866,82 +858,516 @@
       </c>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="b">
-        <v>0</v>
-      </c>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S2" t="b">
+        <v>0</v>
+      </c>
+      <c r="T2" t="b">
+        <v>0</v>
+      </c>
+      <c r="U2" t="b">
+        <v>0</v>
+      </c>
+      <c r="V2" t="b">
+        <v>0</v>
+      </c>
+      <c r="W2" t="b">
+        <v>0</v>
+      </c>
+      <c r="X2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="b">
+        <v>0</v>
+      </c>
       <c r="AB2" t="b">
         <v>1</v>
       </c>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
-      <c r="AL2" t="inlineStr"/>
-      <c r="AM2" t="inlineStr"/>
+      <c r="AC2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="b">
+        <v>0</v>
+      </c>
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr"/>
-      <c r="AR2" t="inlineStr"/>
-      <c r="AS2" t="inlineStr"/>
-      <c r="AT2" t="inlineStr"/>
-      <c r="AU2" t="inlineStr"/>
-      <c r="AV2" t="inlineStr"/>
-      <c r="AW2" t="inlineStr"/>
-      <c r="AX2" t="inlineStr"/>
-      <c r="AY2" t="inlineStr"/>
-      <c r="AZ2" t="inlineStr"/>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>PANTOPRAZOLO SODICO SESQUIDRATO PANTORC*28CPR GASTR 40MG 1cp ore 8
+ACIDO ACETILSALICILICO CARDIOASPIRIN*30CPR GAST 100MG 1cp ore 14
+BISOPROLOLO FUMARATO BISOPROLOLO ALM*28CPR RIV2,5MG 1cp ore e 1/2cp ore 20
+FUROSEMIDE/SPIRONOLATTONE LASITONE*20CPS 25MG+37MG 1cp ore 8</t>
+        </is>
+      </c>
+      <c r="AQ2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>25</v>
+      </c>
+      <c r="AS2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ2" t="b">
+        <v>0</v>
+      </c>
       <c r="BA2" t="inlineStr"/>
       <c r="BB2" t="inlineStr"/>
-      <c r="BC2" t="b">
-        <v>1</v>
-      </c>
+      <c r="BC2" t="inlineStr"/>
       <c r="BD2" t="b">
         <v>1</v>
       </c>
-      <c r="BE2" t="inlineStr"/>
+      <c r="BE2" t="b">
+        <v>0</v>
+      </c>
       <c r="BF2" t="inlineStr"/>
-      <c r="BG2" t="inlineStr"/>
+      <c r="BG2" t="b">
+        <v>0</v>
+      </c>
       <c r="BH2" t="inlineStr"/>
-      <c r="BI2" t="inlineStr"/>
-      <c r="BJ2" t="inlineStr"/>
-      <c r="BK2" t="inlineStr"/>
-      <c r="BL2" t="b">
-        <v>1</v>
-      </c>
-      <c r="BM2" t="inlineStr"/>
-      <c r="BN2" t="inlineStr"/>
-      <c r="BO2" t="inlineStr"/>
-      <c r="BP2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BQ2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="BR2" t="inlineStr"/>
+      <c r="BI2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BK2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BL2" t="inlineStr"/>
+      <c r="BM2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BN2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="b">
+        <v>0</v>
+      </c>
       <c r="BS2" t="inlineStr"/>
       <c r="BT2" t="inlineStr"/>
-      <c r="BU2" t="inlineStr"/>
-      <c r="BV2" t="inlineStr"/>
+      <c r="BU2" t="inlineStr">
+        <is>
+          <t>EMOCROMO - Globuli bianchi 9.8 10^9/L 4.8 - 10.8 27/01/2025
+EMOCROMO - Globuli rossi 3.10 10^12/L 4.7 - 6.1 27/01/2025
+EMOCROMO - Ematocrito 28.0 % 42 - 52 27/01/2025
+EMOCROMO - MCV (Volume Globulare Medio) 90.3 fL 80 - 94 27/01/2025
+EMOCROMO - MCH (Emoglobina Corpuscolare Media) 30.3 pg/Cell 27 - 34 27/01/2025
+EMOCROMO - RDW (Ind.Distribuzione Eritrocitaria) 12.7 CV % 11.5 - 14.5 27/01/2025
+PIASTRINE - Piastrine 157 10^9/L 130 - 400 27/01/2025
+PIASTRINE - MPV (Volume Piastrinico Medio) 9.6 fL 9.1 - 12.5 27/01/2025
+EMOCROMO - Emoglobina 94 g/L 140 - 180 27/01/2025
+EMOCROMO - MCHC (Conc.Emoglobinica 336 g/L 310 - 360 27/01/2025
+Corpusc.Media)
+S-GLUCOSIO 100 mg/dL 60 - 100 27/01/2025
+S-UREA 58 mg/dL 10 - 50 27/01/2025
+S-BILIRUBINA INDIRETTA 0.24 mg/dL 0.01 - 0.8 27/01/2025
+S-BILIRUBINA TOTALE 0.41 mg/dL 0.1 - 1 27/01/2025
+S-BILIRUBINA DIRETTA 0.17 mg/dL 0.01 - 0.25 27/01/2025
+S-SODIO 138.8 mmol/L 135 - 148 27/01/2025
+S-POTASSIO 4.37 mmol/L 3.5 - 5 27/01/2025
+S-CALCIO 2.14 mmol/L 2.1 - 2.6 27/01/2025
+S-CREATINFOSFOCHINASI 308 U/L 20 - 195 27/01/2025
+S-PROPEPTIDE NATRIURETICO NT-proBNP 816 pg/mL 0 - 227 27/01/2025
+S-ASPARTATO AMINOTRANSFERASI 32 U/L 5 - 35 27/01/2025
+S-ALANINA AMINOTRANSFERASI 33 U/L 6 - 59 27/01/2025
+S-LATTICODEIDROGENASI 294 U/L 125 - 220 27/01/2025
+S-PROTEINA C REATTIVA 51.2 mg/L &lt; 6 27/01/2025
+S-TROPONINA T 310 ng/L &lt; 14 27/01/2025
+S-CREATININA 1.05 mg/dL 0.5 - 1.25 27/01/2025
+PT vers.2 - Secondi 8.93 Secondi 27/01/2025
+PT vers.2 - Rapporto 0.91 0.85 - 1.15 27/01/2025
+PT vers.2 - INR -International Normalized Ratio- 0.92 27/01/2025
+APTT vers.2 - Secondi 30 Secondi 27/01/2025
+APTT vers.2 - Rapporto 0.99 0.73 - 1.27 27/01/2025
+S-PROTEINE TOTALI 53.7 g/L 60 - 80 27/01/2025</t>
+        </is>
+      </c>
+      <c r="BV2" t="inlineStr">
+        <is>
+          <t>PANTOPRAZOLO SODICO SESQUIDRATO PANTORC*28CPR GASTR 40MG 1cp ore 8
+ACIDO ACETILSALICILICO CARDIOASPIRIN*30CPR GAST 100MG 1cp ore 14
+BISOPROLOLO FUMARATO BISOPROLOLO ALM*28CPR RIV2,5MG 1cp ore e 1/2cp ore 20
+FUROSEMIDE/SPIRONOLATTONE LASITONE*20CPS 25MG+37MG 1cp ore 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>12025003002</v>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>MASSIMO</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>RICCA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>17/02/1966</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr"/>
+      <c r="AR3" t="inlineStr"/>
+      <c r="AS3" t="inlineStr"/>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AU3" t="inlineStr"/>
+      <c r="AV3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr"/>
+      <c r="AX3" t="inlineStr"/>
+      <c r="AY3" t="inlineStr"/>
+      <c r="AZ3" t="inlineStr"/>
+      <c r="BA3" t="inlineStr"/>
+      <c r="BB3" t="inlineStr"/>
+      <c r="BC3" t="inlineStr"/>
+      <c r="BD3" t="inlineStr"/>
+      <c r="BE3" t="inlineStr"/>
+      <c r="BF3" t="inlineStr"/>
+      <c r="BG3" t="inlineStr"/>
+      <c r="BH3" t="inlineStr"/>
+      <c r="BI3" t="inlineStr"/>
+      <c r="BJ3" t="inlineStr"/>
+      <c r="BK3" t="inlineStr"/>
+      <c r="BL3" t="inlineStr"/>
+      <c r="BM3" t="inlineStr"/>
+      <c r="BN3" t="inlineStr"/>
+      <c r="BO3" t="inlineStr"/>
+      <c r="BP3" t="inlineStr"/>
+      <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
+      <c r="BS3" t="inlineStr"/>
+      <c r="BT3" t="inlineStr"/>
+      <c r="BU3" t="inlineStr"/>
+      <c r="BV3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2025003002</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>20/01/2025</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>27/01/2025</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>MASSIMO</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>RICCA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>17/02/1966</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Stenosi aortica</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Allergie: gamberi. Familiarità positiva per CAD. Nega abitudine tabagica. Alvo e diuresi regolare. ernia inguinale destra, pollipectomia colonoscopica (benigna).</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="N4" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="b">
+        <v>0</v>
+      </c>
+      <c r="S4" t="b">
+        <v>0</v>
+      </c>
+      <c r="T4" t="b">
+        <v>0</v>
+      </c>
+      <c r="U4" t="b">
+        <v>0</v>
+      </c>
+      <c r="V4" t="b">
+        <v>0</v>
+      </c>
+      <c r="W4" t="b">
+        <v>0</v>
+      </c>
+      <c r="X4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr"/>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>PANTOPRAZOLO SODICO SESQUIDRATO PANTORC*28CPR GASTR 40MG 1cp ore 8, ACIDO ACETILSALICILICO CARDIOASPIRIN*30CPR GAST 100MG 1cp ore 14, BISOPROLOLO FUMARATO BISOPROLOLO ALM*28CPR RIV2,5MG 1cp ore e 1/2cp ore 20, FUROSEMIDE/SPIRONOLATTONE LASITONE*20CPS 25MG+37MG 1cp ore 8</t>
+        </is>
+      </c>
+      <c r="AQ4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR4" t="inlineStr"/>
+      <c r="AS4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA4" t="inlineStr">
+        <is>
+          <t>Rx torace 20/01/2025, Ecocardiogramma transtoracico 20/01/2025, Coronarografia 21/01/2025</t>
+        </is>
+      </c>
+      <c r="BB4" t="inlineStr">
+        <is>
+          <t>necessità di supporto inotropo ad alto dosaggio con adrenalina per moderata disfunzione biventricolare e noradrenalina a medio dosaggio per vasoplegia; necessità di supporto meccanico del circolo con IABP (rimosso in data 23/01). trasfusione di 1 unità di emazie concentrate; regolare svezzzamento dal supporto inotropo, meccanico e respiratorio.</t>
+        </is>
+      </c>
+      <c r="BC4" t="inlineStr"/>
+      <c r="BD4" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BF4" t="inlineStr"/>
+      <c r="BG4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BH4" t="inlineStr"/>
+      <c r="BI4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BK4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BL4" t="inlineStr"/>
+      <c r="BM4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BN4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BO4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS4" t="inlineStr"/>
+      <c r="BT4" t="inlineStr"/>
+      <c r="BU4" t="inlineStr">
+        <is>
+          <t>ECOCARDIOGRAMMA + DOPPLER 27/01/2025, RX TORACE 24/01/2025</t>
+        </is>
+      </c>
+      <c r="BV4" t="inlineStr">
+        <is>
+          <t>PANTOPRAZOLO SODICO SESQUIDRATO PANTORC*28CPR GASTR 40MG 1cp ore 8, ACIDO ACETILSALICILICO CARDIOASPIRIN*30CPR GAST 100MG 1cp ore 14, BISOPROLOLO FUMARATO BISOPROLOLO ALM*28CPR RIV2,5MG 1cp ore e 1/2cp ore 20, FUROSEMIDE/SPIRONOLATTONE LASITONE*20CPS 25MG+37MG 1cp ore 8</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -954,7 +1380,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1050,11 +1476,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2025003002</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
           <t>MASSIMO</t>
@@ -1084,6 +1506,99 @@
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>12025003002</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>MASSIMO</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>RICCA</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17/02/1966</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>21/01/2025</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>CircoloCoronarico: Dominanzadestra
+CoronariaSinistra:
+-TroncoComune:breve,esentedalesioni.
+-Arteriadiscendenteanteriore(IVA):esentedalesioniaterosclerotichestenosanti.
+-Arteriacirconflessa(CX):esentedalesioniaterosclerotichestenosanti.
+CoronariaDestra:
+Coronariadestra(CDX):esentedalesioniaterosclerotichestenosanti.
+AltreOpacizzazioni:
+Aortografia:aneurisma dell'aorta ascendente; insufficienza valvolare aortica di grado severo.
+Conclusioni:
+Alberocoronaricoesentedalesionistenosanti.Aneurisma dell'aortaascendente;insufficienzavalvolareaorticadigrado
+severo.</t>
+        </is>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2025003002</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>MASSIMO</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>RICCA</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17/02/1966</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1095,7 +1610,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1226,11 +1741,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2025003002</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -1255,6 +1766,62 @@
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>12025003002</v>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2025003002</v>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/export/output.xlsx
+++ b/export/output.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BV4"/>
+  <dimension ref="A1:BV5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1147,7 +1147,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2025003002</v>
+        <v>12025003002</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -1368,6 +1368,96 @@
           <t>PANTOPRAZOLO SODICO SESQUIDRATO PANTORC*28CPR GASTR 40MG 1cp ore 8, ACIDO ACETILSALICILICO CARDIOASPIRIN*30CPR GAST 100MG 1cp ore 14, BISOPROLOLO FUMARATO BISOPROLOLO ALM*28CPR RIV2,5MG 1cp ore e 1/2cp ore 20, FUROSEMIDE/SPIRONOLATTONE LASITONE*20CPS 25MG+37MG 1cp ore 8</t>
         </is>
       </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>12025003002</v>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>MASSIMO</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>RICCA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>17/02/1966</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="inlineStr"/>
+      <c r="AP5" t="inlineStr"/>
+      <c r="AQ5" t="inlineStr"/>
+      <c r="AR5" t="inlineStr"/>
+      <c r="AS5" t="inlineStr"/>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AU5" t="inlineStr"/>
+      <c r="AV5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr"/>
+      <c r="AX5" t="inlineStr"/>
+      <c r="AY5" t="inlineStr"/>
+      <c r="AZ5" t="inlineStr"/>
+      <c r="BA5" t="inlineStr"/>
+      <c r="BB5" t="inlineStr"/>
+      <c r="BC5" t="inlineStr"/>
+      <c r="BD5" t="inlineStr"/>
+      <c r="BE5" t="inlineStr"/>
+      <c r="BF5" t="inlineStr"/>
+      <c r="BG5" t="inlineStr"/>
+      <c r="BH5" t="inlineStr"/>
+      <c r="BI5" t="inlineStr"/>
+      <c r="BJ5" t="inlineStr"/>
+      <c r="BK5" t="inlineStr"/>
+      <c r="BL5" t="inlineStr"/>
+      <c r="BM5" t="inlineStr"/>
+      <c r="BN5" t="inlineStr"/>
+      <c r="BO5" t="inlineStr"/>
+      <c r="BP5" t="inlineStr"/>
+      <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
+      <c r="BS5" t="inlineStr"/>
+      <c r="BT5" t="inlineStr"/>
+      <c r="BU5" t="inlineStr"/>
+      <c r="BV5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1380,7 +1470,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1568,7 +1658,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2025003002</v>
+        <v>12025003002</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -1599,6 +1689,55 @@
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>12025003002</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>MASSIMO</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>RICCA</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17/02/1966</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>21/01/2025</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>CircoloCoronarico: Dominanzadestra CoronariaSinistra: -TroncoComune:breve,esentedalesioni. -Arteriadiscendenteanteriore(IVA):esentedalesioniaterosclerotichestenosanti. -Arteriacirconflessa(CX):esentedalesioniaterosclerotichestenosanti. CoronariaDestra: Coronariadestra(CDX):esentedalesioniaterosclerotichestenosanti. AltreOpacizzazioni: Aortografia:aneurisma dell'aorta ascendente; insufficienza valvolare aortica di grado severo. Conclusioni: Alberocoronaricoesentedalesionistenosanti.Aneurisma dell'aortaascendente;insufficienzavalvolareaorticadigrado severo.</t>
+        </is>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1610,7 +1749,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1796,7 +1935,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2025003002</v>
+        <v>12025003002</v>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
@@ -1822,6 +1961,34 @@
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>12025003002</v>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/export/output.xlsx
+++ b/export/output.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BV5"/>
+  <dimension ref="A1:BV6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1459,6 +1459,96 @@
       <c r="BU5" t="inlineStr"/>
       <c r="BV5" t="inlineStr"/>
     </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2025003002</v>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>MASSIMO</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>RICCA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>17/02/1966</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="inlineStr"/>
+      <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr"/>
+      <c r="AR6" t="inlineStr"/>
+      <c r="AS6" t="inlineStr"/>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AU6" t="inlineStr"/>
+      <c r="AV6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr"/>
+      <c r="AX6" t="inlineStr"/>
+      <c r="AY6" t="inlineStr"/>
+      <c r="AZ6" t="inlineStr"/>
+      <c r="BA6" t="inlineStr"/>
+      <c r="BB6" t="inlineStr"/>
+      <c r="BC6" t="inlineStr"/>
+      <c r="BD6" t="inlineStr"/>
+      <c r="BE6" t="inlineStr"/>
+      <c r="BF6" t="inlineStr"/>
+      <c r="BG6" t="inlineStr"/>
+      <c r="BH6" t="inlineStr"/>
+      <c r="BI6" t="inlineStr"/>
+      <c r="BJ6" t="inlineStr"/>
+      <c r="BK6" t="inlineStr"/>
+      <c r="BL6" t="inlineStr"/>
+      <c r="BM6" t="inlineStr"/>
+      <c r="BN6" t="inlineStr"/>
+      <c r="BO6" t="inlineStr"/>
+      <c r="BP6" t="inlineStr"/>
+      <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
+      <c r="BS6" t="inlineStr"/>
+      <c r="BT6" t="inlineStr"/>
+      <c r="BU6" t="inlineStr"/>
+      <c r="BV6" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1470,7 +1560,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1738,6 +1828,66 @@
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
     </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2025003002</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MASSIMO</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>RICCA</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17/02/1966</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>21/01/2025</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>CircoloCoronarico: Dominanzadestra
+CoronariaSinistra:
+-TroncoComune:breve,esentedalesioni.
+-Arteriadiscendenteanteriore(IVA):esentedalesioniaterosclerotichestenosanti.
+-Arteriacirconflessa(CX):esentedalesioniaterosclerotichestenosanti.
+CoronariaDestra:
+Coronariadestra(CDX):esentedalesioniaterosclerotichestenosanti.
+AltreOpacizzazioni:
+Aortografia:aneurisma dell'aorta ascendente; insufficienza valvolare aortica di grado severo.
+Conclusioni:
+Alberocoronaricoesentedalesionistenosanti.Aneurisma dell'aortaascendente;insufficienzavalvolareaorticadigrado
+severo.</t>
+        </is>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1749,7 +1899,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X5"/>
+  <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1989,6 +2139,34 @@
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
     </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2025003002</v>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/export/output.xlsx
+++ b/export/output.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BV6"/>
+  <dimension ref="A1:BV13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1461,7 +1461,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2025003002</v>
+        <v>12025003002</v>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
@@ -1549,6 +1549,745 @@
       <c r="BU6" t="inlineStr"/>
       <c r="BV6" t="inlineStr"/>
     </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>12025003002</v>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>MASSIMO</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>RICCA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>17/02/1966</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr"/>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="inlineStr"/>
+      <c r="AP7" t="inlineStr"/>
+      <c r="AQ7" t="inlineStr"/>
+      <c r="AR7" t="inlineStr"/>
+      <c r="AS7" t="inlineStr"/>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AU7" t="inlineStr"/>
+      <c r="AV7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr"/>
+      <c r="AX7" t="inlineStr"/>
+      <c r="AY7" t="inlineStr"/>
+      <c r="AZ7" t="inlineStr"/>
+      <c r="BA7" t="inlineStr"/>
+      <c r="BB7" t="inlineStr"/>
+      <c r="BC7" t="inlineStr"/>
+      <c r="BD7" t="inlineStr"/>
+      <c r="BE7" t="inlineStr"/>
+      <c r="BF7" t="inlineStr"/>
+      <c r="BG7" t="inlineStr"/>
+      <c r="BH7" t="inlineStr"/>
+      <c r="BI7" t="inlineStr"/>
+      <c r="BJ7" t="inlineStr"/>
+      <c r="BK7" t="inlineStr"/>
+      <c r="BL7" t="inlineStr"/>
+      <c r="BM7" t="inlineStr"/>
+      <c r="BN7" t="inlineStr"/>
+      <c r="BO7" t="inlineStr"/>
+      <c r="BP7" t="inlineStr"/>
+      <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
+      <c r="BS7" t="inlineStr"/>
+      <c r="BT7" t="inlineStr"/>
+      <c r="BU7" t="inlineStr"/>
+      <c r="BV7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>59009646</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>20/01/2025</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>27/01/2025</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>MASSIMO</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>RICCA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>17/02/1966</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>In data 21/01/2025 Sostituzione valvolare aortica con protesi biologica (Inspiris Resilia n.29) e sostituzione di radice aortica con protesi vascolare (Vascutek n.32) con reimpianto degli osti coronarici secondo Bentall in ministernotomia.</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="inlineStr"/>
+      <c r="AP8" t="inlineStr"/>
+      <c r="AQ8" t="inlineStr"/>
+      <c r="AR8" t="inlineStr"/>
+      <c r="AS8" t="inlineStr"/>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AU8" t="inlineStr"/>
+      <c r="AV8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr"/>
+      <c r="AX8" t="inlineStr"/>
+      <c r="AY8" t="inlineStr"/>
+      <c r="AZ8" t="inlineStr"/>
+      <c r="BA8" t="inlineStr"/>
+      <c r="BB8" t="inlineStr"/>
+      <c r="BC8" t="inlineStr"/>
+      <c r="BD8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE8" t="inlineStr"/>
+      <c r="BF8" t="inlineStr"/>
+      <c r="BG8" t="inlineStr"/>
+      <c r="BH8" t="inlineStr"/>
+      <c r="BI8" t="inlineStr"/>
+      <c r="BJ8" t="inlineStr"/>
+      <c r="BK8" t="inlineStr"/>
+      <c r="BL8" t="inlineStr"/>
+      <c r="BM8" t="inlineStr"/>
+      <c r="BN8" t="inlineStr"/>
+      <c r="BO8" t="inlineStr"/>
+      <c r="BP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
+      <c r="BS8" t="inlineStr"/>
+      <c r="BT8" t="inlineStr"/>
+      <c r="BU8" t="inlineStr"/>
+      <c r="BV8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>264</v>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>RICCAMASSIMO</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>IMPERIA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>17/02/1966</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="inlineStr"/>
+      <c r="AP9" t="inlineStr"/>
+      <c r="AQ9" t="inlineStr"/>
+      <c r="AR9" t="inlineStr"/>
+      <c r="AS9" t="inlineStr"/>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AU9" t="inlineStr"/>
+      <c r="AV9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr"/>
+      <c r="AX9" t="inlineStr"/>
+      <c r="AY9" t="inlineStr"/>
+      <c r="AZ9" t="inlineStr"/>
+      <c r="BA9" t="inlineStr"/>
+      <c r="BB9" t="inlineStr"/>
+      <c r="BC9" t="inlineStr"/>
+      <c r="BD9" t="inlineStr"/>
+      <c r="BE9" t="inlineStr"/>
+      <c r="BF9" t="inlineStr"/>
+      <c r="BG9" t="inlineStr"/>
+      <c r="BH9" t="inlineStr"/>
+      <c r="BI9" t="inlineStr"/>
+      <c r="BJ9" t="inlineStr"/>
+      <c r="BK9" t="inlineStr"/>
+      <c r="BL9" t="inlineStr"/>
+      <c r="BM9" t="inlineStr"/>
+      <c r="BN9" t="inlineStr"/>
+      <c r="BO9" t="inlineStr"/>
+      <c r="BP9" t="inlineStr"/>
+      <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
+      <c r="BS9" t="inlineStr"/>
+      <c r="BT9" t="inlineStr"/>
+      <c r="BU9" t="inlineStr"/>
+      <c r="BV9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>12025003002</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>20/01/2025</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>27/01/2025</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>MASSIMO</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>RICCA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>17/02/1966</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>In data 21/01/2025 Sostituzione valvolare aortica con protesi biologica (Inspiris Resilia n.29) e sostituzione di radice aortica con protesi vascolare (Vascutek n.32) con reimpianto degli osti coronarici secondo Bentall in ministernotomia.</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="inlineStr"/>
+      <c r="AH10" t="inlineStr"/>
+      <c r="AI10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr"/>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr"/>
+      <c r="AO10" t="inlineStr"/>
+      <c r="AP10" t="inlineStr"/>
+      <c r="AQ10" t="inlineStr"/>
+      <c r="AR10" t="inlineStr"/>
+      <c r="AS10" t="inlineStr"/>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AU10" t="inlineStr"/>
+      <c r="AV10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr"/>
+      <c r="AX10" t="inlineStr"/>
+      <c r="AY10" t="inlineStr"/>
+      <c r="AZ10" t="inlineStr"/>
+      <c r="BA10" t="inlineStr"/>
+      <c r="BB10" t="inlineStr"/>
+      <c r="BC10" t="inlineStr"/>
+      <c r="BD10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE10" t="inlineStr"/>
+      <c r="BF10" t="inlineStr"/>
+      <c r="BG10" t="inlineStr"/>
+      <c r="BH10" t="inlineStr"/>
+      <c r="BI10" t="inlineStr"/>
+      <c r="BJ10" t="inlineStr"/>
+      <c r="BK10" t="inlineStr"/>
+      <c r="BL10" t="inlineStr"/>
+      <c r="BM10" t="inlineStr"/>
+      <c r="BN10" t="inlineStr"/>
+      <c r="BO10" t="inlineStr"/>
+      <c r="BP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
+      <c r="BS10" t="inlineStr"/>
+      <c r="BT10" t="inlineStr"/>
+      <c r="BU10" t="inlineStr"/>
+      <c r="BV10" t="inlineStr">
+        <is>
+          <t>PANTOPRAZOLO SODICO SESQUIDRATO PANTORC*28CPR GASTR 40MG 1cp ore 8
+ACIDO ACETILSALICILICO CARDIOASPIRIN*30CPR GAST 100MG 1cp ore 14
+BISOPROLOLO FUMARATO BISOPROLOLO ALM*28CPR RIV2,5MG 1cp ore e 1/2cp ore 20
+FUROSEMIDE/SPIRONOLATTONE LASITONE*20CPS 25MG+37MG 1cp ore 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>12025003002</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>20/01/2025</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>27/01/2025</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>MASSIMO</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>RICCA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>17/02/1966</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>In data 21/01/2025 Sostituzione valvolare aortica con protesi biologica (Inspiris Resilia n.29) e sostituzione di radice aortica con protesi vascolare (Vascutek n.32) con reimpianto degli osti coronarici secondo Bentall in ministernotomia.</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="inlineStr"/>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
+      <c r="AR11" t="inlineStr"/>
+      <c r="AS11" t="inlineStr"/>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AU11" t="inlineStr"/>
+      <c r="AV11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr"/>
+      <c r="AX11" t="inlineStr"/>
+      <c r="AY11" t="inlineStr"/>
+      <c r="AZ11" t="inlineStr"/>
+      <c r="BA11" t="inlineStr"/>
+      <c r="BB11" t="inlineStr"/>
+      <c r="BC11" t="inlineStr"/>
+      <c r="BD11" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE11" t="inlineStr"/>
+      <c r="BF11" t="inlineStr"/>
+      <c r="BG11" t="inlineStr"/>
+      <c r="BH11" t="inlineStr"/>
+      <c r="BI11" t="inlineStr"/>
+      <c r="BJ11" t="inlineStr"/>
+      <c r="BK11" t="inlineStr"/>
+      <c r="BL11" t="inlineStr"/>
+      <c r="BM11" t="inlineStr"/>
+      <c r="BN11" t="inlineStr"/>
+      <c r="BO11" t="inlineStr"/>
+      <c r="BP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
+      <c r="BS11" t="inlineStr"/>
+      <c r="BT11" t="inlineStr"/>
+      <c r="BU11" t="inlineStr"/>
+      <c r="BV11" t="inlineStr">
+        <is>
+          <t>PANTOPRAZOLO SODICO SESQUIDRATO PANTORC*28CPR GASTR 40MG 1cp ore 8
+ACIDO ACETILSALICILICO CARDIOASPIRIN*30CPR GAST 100MG 1cp ore 14
+BISOPROLOLO FUMARATO BISOPROLOLO ALM*28CPR RIV2,5MG 1cp ore e 1/2cp ore 20
+FUROSEMIDE/SPIRONOLATTONE LASITONE*20CPS 25MG+37MG 1cp ore 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>12025003002</v>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>MASSIMO</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>RICCA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>17/02/1966</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="inlineStr"/>
+      <c r="AH12" t="inlineStr"/>
+      <c r="AI12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="inlineStr"/>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr"/>
+      <c r="AO12" t="inlineStr"/>
+      <c r="AP12" t="inlineStr"/>
+      <c r="AQ12" t="inlineStr"/>
+      <c r="AR12" t="inlineStr"/>
+      <c r="AS12" t="inlineStr"/>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AU12" t="inlineStr"/>
+      <c r="AV12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr"/>
+      <c r="AX12" t="inlineStr"/>
+      <c r="AY12" t="inlineStr"/>
+      <c r="AZ12" t="inlineStr"/>
+      <c r="BA12" t="inlineStr"/>
+      <c r="BB12" t="inlineStr"/>
+      <c r="BC12" t="inlineStr"/>
+      <c r="BD12" t="inlineStr"/>
+      <c r="BE12" t="inlineStr"/>
+      <c r="BF12" t="inlineStr"/>
+      <c r="BG12" t="inlineStr"/>
+      <c r="BH12" t="inlineStr"/>
+      <c r="BI12" t="inlineStr"/>
+      <c r="BJ12" t="inlineStr"/>
+      <c r="BK12" t="inlineStr"/>
+      <c r="BL12" t="inlineStr"/>
+      <c r="BM12" t="inlineStr"/>
+      <c r="BN12" t="inlineStr"/>
+      <c r="BO12" t="inlineStr"/>
+      <c r="BP12" t="inlineStr"/>
+      <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
+      <c r="BS12" t="inlineStr"/>
+      <c r="BT12" t="inlineStr"/>
+      <c r="BU12" t="inlineStr"/>
+      <c r="BV12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>264</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>20/01/2025</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>27/01/2025</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>MASSIMO</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>RICCA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>17/02/1966</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>In data 21/01/2025 Sostituzione valvolare aortica con protesi biologica (Inspiris Resilia n.29) e sostituzione di radice aortica con protesi vascolare (Vascutek n.32) con reimpianto degli osti coronarici secondo Bentall in ministernotomia.</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="inlineStr"/>
+      <c r="AH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="inlineStr"/>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr"/>
+      <c r="AO13" t="inlineStr"/>
+      <c r="AP13" t="inlineStr"/>
+      <c r="AQ13" t="inlineStr"/>
+      <c r="AR13" t="inlineStr"/>
+      <c r="AS13" t="inlineStr"/>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AU13" t="inlineStr"/>
+      <c r="AV13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr"/>
+      <c r="AX13" t="inlineStr"/>
+      <c r="AY13" t="inlineStr"/>
+      <c r="AZ13" t="inlineStr"/>
+      <c r="BA13" t="inlineStr"/>
+      <c r="BB13" t="inlineStr"/>
+      <c r="BC13" t="inlineStr"/>
+      <c r="BD13" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE13" t="inlineStr"/>
+      <c r="BF13" t="inlineStr"/>
+      <c r="BG13" t="inlineStr"/>
+      <c r="BH13" t="inlineStr"/>
+      <c r="BI13" t="inlineStr"/>
+      <c r="BJ13" t="inlineStr"/>
+      <c r="BK13" t="inlineStr"/>
+      <c r="BL13" t="inlineStr"/>
+      <c r="BM13" t="inlineStr"/>
+      <c r="BN13" t="inlineStr"/>
+      <c r="BO13" t="inlineStr"/>
+      <c r="BP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
+      <c r="BS13" t="inlineStr"/>
+      <c r="BT13" t="inlineStr"/>
+      <c r="BU13" t="inlineStr"/>
+      <c r="BV13" t="inlineStr">
+        <is>
+          <t>PANTOPRAZOLO SODICO SESQUIDRATO PANTORC*28CPR GASTR 40MG 1cp ore 8
+ACIDO ACETILSALICILICO CARDIOASPIRIN*30CPR GAST 100MG 1cp ore 14
+BISOPROLOLO FUMARATO BISOPROLOLO ALM*28CPR RIV2,5MG 1cp ore e 1/2cp ore 20
+FUROSEMIDE/SPIRONOLATTONE LASITONE*20CPS 25MG+37MG 1cp ore 8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1560,7 +2299,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1830,7 +2569,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2025003002</v>
+        <v>12025003002</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1888,6 +2627,295 @@
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
     </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>12025003002</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>MASSIMO</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>RICCA</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17/02/1966</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>21/01/2025</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>CircoloCoronarico: Dominanzadestra
+CoronariaSinistra:
+-TroncoComune:breve,esentedalesioni.
+-Arteriadiscendenteanteriore(IVA):esentedalesioniaterosclerotichestenosanti.
+-Arteriacirconflessa(CX):esentedalesioniaterosclerotichestenosanti.
+CoronariaDestra:
+Coronariadestra(CDX):esentedalesioniaterosclerotichestenosanti.
+AltreOpacizzazioni:
+Aortografia:aneurisma dell'aorta ascendente; insufficienza valvolare aortica di grado severo.
+Conclusioni:
+Alberocoronaricoesentedalesionistenosanti.Aneurisma dell'aortaascendente;insufficienzavalvolareaorticadigrado
+severo.</t>
+        </is>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>59009646</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>MASSIMO</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>RICCA</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17/02/1966</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>264</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>RICCAMASSIMO</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>IMPERIA</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17/02/1966</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20/01/2025</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>12025003002</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MASSIMO</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>RICCA</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17/02/1966</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>12025003002</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>MASSIMO</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>RICCA</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17/02/1966</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>12025003002</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>MASSIMO</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>RICCA</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17/02/1966</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>21/01/2025</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>CircoloCoronarico: Dominanzadestra
+CoronariaSinistra:
+-TroncoComune:breve,esentedalesioni.
+-Arteriadiscendenteanteriore(IVA):esentedalesioniaterosclerotichestenosanti.
+-Arteriacirconflessa(CX):esentedalesioniaterosclerotichestenosanti.
+CoronariaDestra:
+Coronariadestra(CDX):esentedalesioniaterosclerotichestenosanti.
+AltreOpacizzazioni:
+Aortografia:aneurisma dell'aorta ascendente; insufficienza valvolare aortica di grado severo.
+Conclusioni:
+Alberocoronaricoesentedalesionistenosanti.Aneurisma dell'aortaascendente;insufficienzavalvolareaorticadigrado
+severo.</t>
+        </is>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="b">
+        <v>0</v>
+      </c>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>264</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MASSIMO</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>RICCA</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17/02/1966</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1899,7 +2927,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X6"/>
+  <dimension ref="A1:X13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2141,7 +3169,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2025003002</v>
+        <v>12025003002</v>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
@@ -2167,6 +3195,202 @@
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
     </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>12025003002</v>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>59009646</v>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>264</v>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>12025003002</v>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>12025003002</v>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>12025003002</v>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>264</v>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/export/output.xlsx
+++ b/export/output.xlsx
@@ -10,6 +10,7 @@
     <sheet name="lettera_dimissione" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="eco_postoperatorio" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="intervento" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="coronarografia" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -836,7 +837,11 @@
           <t>RICCA</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>3287351755</t>
@@ -868,218 +873,88 @@
       </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
-      <c r="P2" t="n">
+      <c r="P2" t="b">
         <v>0</v>
       </c>
-      <c r="Q2" t="b">
-        <v>0</v>
-      </c>
-      <c r="R2" t="b">
-        <v>0</v>
-      </c>
-      <c r="S2" t="b">
-        <v>0</v>
-      </c>
-      <c r="T2" t="b">
-        <v>0</v>
-      </c>
-      <c r="U2" t="b">
-        <v>0</v>
-      </c>
-      <c r="V2" t="b">
-        <v>0</v>
-      </c>
-      <c r="W2" t="b">
-        <v>0</v>
-      </c>
-      <c r="X2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="b">
-        <v>0</v>
-      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="b">
         <v>1</v>
       </c>
-      <c r="AB2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="b">
-        <v>0</v>
-      </c>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="n">
         <v>0</v>
       </c>
-      <c r="AE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF2" t="b">
-        <v>0</v>
-      </c>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
         <v>0</v>
       </c>
-      <c r="AH2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL2" t="b">
-        <v>0</v>
-      </c>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
       <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr"/>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>PANTOPRAZOLO SODICO SESQUIDRATO PANTORC*28CPR GASTR 40MG 1cp ore 8
-ACIDO ACETILSALICILICO CARDIOASPIRIN*30CPR GAST 100MG 1cp ore 14
-BISOPROLOLO FUMARATO BISOPROLOLO ALM*28CPR RIV2,5MG 1cp ore e 1/2cp ore 20
-FUROSEMIDE/SPIRONOLATTONE LASITONE*20CPS 25MG+37MG 1cp ore 8</t>
-        </is>
-      </c>
-      <c r="AP2" t="b">
-        <v>1</v>
-      </c>
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2" t="inlineStr"/>
       <c r="AQ2" t="inlineStr"/>
-      <c r="AR2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ2" t="inlineStr">
-        <is>
-          <t>Rx torace 20/01/2025:Campi polmonari normoespansi, senza addensamenti parenchimali a focolaio in atto bilateralmente. Ili accentuati di aspetto vascolare. uore nei limiti.Ectasia dell'aorta nel tratto ascendente. Non egni di versamento pleurico.
-Ecocardiogramma transtoracico 20/01/2025: Stenoinsufficienza valvolare aortica organica in valvola bicuspide (fused-type RCC-LCC tipo 1 con trei seni di Valsalva sec. Michelena et al.). Elevato burden calcifico asimmetrico, soprattutto a carico della cuspide conjoint e della commissura anteriore: -insufficienza di grado severo (VC-2D 6 mm; backflow olodiastolico in aorta discendente prossimale &gt; 0.2 m/s). -stenosi di grado moderato (V max 4.1 m/s; G medio 40 mmHg; DVI 0,3; AVAi 0,63 cm2/m2) in regime di high-flow (SVi 56 ml/m2). Radice aortica ai seni di Valsalva e alla giunzione sinotubulare dilatata. Aneurisma dell'aorta ascendente al tratto tubulare. Severa ipertrofia concentrica del ventricolo sinistro, severamente dilatato, con funzione sistolica globale lievemente ridotta in presenza di lieve ipocinesia diffusa e dissincronia da ritardo di conduzione. Alterata texture miocardica come da cardiopatia valvolare evoluta. Pattern diastolico mal valutabile in presenza di rigurgito aortico eccentrico diretto verso il lembo anteriore della mitrale. Insufficienza mitralica di grado lieve. Atrio sinistro non dilatato. Ventricolo destro di normali dimensioni e funzione sistolica. Lieve insufficienza tricuspidalica da prolasso del lembo settale. Normale pressione polmonare stimata. Diametro SL non dilatato (14 mm/mq). Vena cava inferiore di normali dimensioni con variabilità respiratoria conservata. Assenza di versamento pericardico. CONCLUSIONI Stenoinsufficienza aortica in valvola bicuspide: insufficienza severa, stenosi moderata in regime de alta portata. Severa ipertrofia e severa dilatazione del ventricolo sinistro con lieve riduzione della funzione sistolica in chiave di cardiopatia valvolare evoluta. Aneurisma dell'aorta ascendente tubulare.
-Coronarografia 21/01/2025: Circolo Coronarico: Dominanza destra Coronaria Sinistra: - Tronco Comune: breve, esente da lesioni. - Arteria discendente anteriore (IVA): esente da lesioni aterosclerotiche stenosanti. - Arteria circonflessa (CX): esente da lesioni aterosclerotiche stenosanti. Coronaria Destra: Coronaria destra (CDX): esente da lesioni aterosclerotiche stenosanti. Altre Opacizzazioni: Aortografia: aneurisma dell'aorta ascendente; insufficienza valvolare aortica di grado severo. Conclusioni: Albero coronarico esente da lesioni stenosanti. Aneurisma dell'aorta ascendente; insufficienza valvolare aortica di grado severo.</t>
-        </is>
-      </c>
-      <c r="BA2" t="inlineStr">
-        <is>
-          <t>Il decorso intra-operatorio è stato caratterizzato da:
-- necessità di supporto inotropo ad alto dosaggio con adrenalina per moderata disfunzione biventricolare e noradrenalina a medio dosaggio per vasoplegia;
-- necessità di supporto meccanico del circolo con IABP ( rimosso in data 23/01).
-Il decorso in terapia intensiva è stato caratterizzato da:
-- trasfusione di 1 unità di emazie concentrate;
-- regolare svezzzamento dal supporto inotropo, meccanico e respiratorio.
-Il decorso in reparto è stato caratterizzato da regolare svezzzamento dal supporto inotropo e respiratorio.
-Eseguito in data 26/01/25 nuovo tampone per SARS-CoV-2, risultato negativo
-L'ECG alla dimissione dimostra ritmo sinusale.
-Le ferite chirurgiche sono in ordine.
-L'Rx torace pre-dimissione non evidenzia patologia pleuro-parenchimale in atto.
-L'ecocardiogramma trans-toracico pre-dimissione evidenzia: In esiti di SVAO (protesi biologica Inspiris Resilia n.29) e sostituzione di radice aortica con protesi vascolare (Vascutek n.32), protesi aortica normofunzionante, assenza di patologico rigurgito residuo. Funzione contrattile globale del ventricolo sinistro ai limiti inferiori di norma, in presenza di dissincronia settale. PAPS: 25 mmHg. Ventricolo destro di normali dimensioni endocavitarie, funzione contrattile globale lievemente ridotta. Vena cava inferiore di normali dimensioni con variabilità respiratoria conservata. Scollamento pericardico.CONCLUSIONI Buon esito SVAO e di sostituzione della radice aortica</t>
-        </is>
-      </c>
+      <c r="AR2" t="inlineStr"/>
+      <c r="AS2" t="inlineStr"/>
+      <c r="AT2" t="inlineStr"/>
+      <c r="AU2" t="inlineStr"/>
+      <c r="AV2" t="inlineStr"/>
+      <c r="AW2" t="inlineStr"/>
+      <c r="AX2" t="inlineStr"/>
+      <c r="AY2" t="inlineStr"/>
+      <c r="AZ2" t="inlineStr"/>
+      <c r="BA2" t="inlineStr"/>
       <c r="BB2" t="b">
         <v>1</v>
       </c>
       <c r="BC2" t="b">
         <v>1</v>
       </c>
-      <c r="BD2" t="b">
-        <v>0</v>
-      </c>
+      <c r="BD2" t="inlineStr"/>
       <c r="BE2" t="inlineStr"/>
       <c r="BF2" t="inlineStr"/>
       <c r="BG2" t="inlineStr"/>
-      <c r="BH2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BI2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ2" t="b">
-        <v>0</v>
-      </c>
+      <c r="BH2" t="inlineStr"/>
+      <c r="BI2" t="inlineStr"/>
+      <c r="BJ2" t="inlineStr"/>
       <c r="BK2" t="b">
         <v>1</v>
       </c>
-      <c r="BL2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BM2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BN2" t="b">
-        <v>0</v>
-      </c>
+      <c r="BL2" t="inlineStr"/>
+      <c r="BM2" t="inlineStr"/>
+      <c r="BN2" t="inlineStr"/>
       <c r="BO2" t="n">
         <v>0</v>
       </c>
-      <c r="BP2" t="inlineStr"/>
-      <c r="BQ2" t="b">
-        <v>0</v>
-      </c>
+      <c r="BP2" t="n">
+        <v>6</v>
+      </c>
+      <c r="BQ2" t="inlineStr"/>
       <c r="BR2" t="inlineStr"/>
       <c r="BS2" t="inlineStr"/>
-      <c r="BT2" t="inlineStr">
-        <is>
-          <t>Gli esami di laboratorio di routine (emocromo, funzionalità renale ed epatica, elettroliti) alla dimissione sono risultati consoni con lo stato post-operatorio.</t>
-        </is>
-      </c>
+      <c r="BT2" t="inlineStr"/>
       <c r="BU2" t="inlineStr">
         <is>
-          <t>PANTOPRAZOLO SODICO SESQUIDRATO PANTORC*28CPR GASTR 40MG 1cp ore 8
-ACIDO ACETILSALICILICO CARDIOASPIRIN*30CPR GAST 100MG 1cp ore 14
-BISOPROLOLO FUMARATO BISOPROLOLO ALM*28CPR RIV2,5MG 1cp ore e 1/2cp ore 20
-FUROSEMIDE/SPIRONOLATTONE LASITONE*20CPS 25MG+37MG 1cp ore 8</t>
-        </is>
-      </c>
-      <c r="BV2" t="inlineStr">
-        <is>
-          <t>Allergie: gamberi
-Anamnesi fisiologica:
-Familiarità positiva per CAD. Nega abitudine tabagica. Alvo e diuresi regolare.
-Anamnesi patologica prossima e remota:
-ernia inguinale destra, pollipectomia colonoscopica (benigna)
-Anamnesi cardiologica:
-in data 01/10/24 viene ricoverato presso l'ospedale di Imperia per intervento chirurgico di ernia inguinale
-destra. Durante gli accertamenti è stato fatto un ECG con riscontro elettrocardiografico di BBDx e pertanto
-consigliato di eseguire una visita cardiologica.
-In data 11/10/24 visita cardiologia al ospedale di Imperia con ecocardiogramma che dimostra: VS Td 59 mm,
-ipertrofia del setto IV 18 mm, Aorta bulbo e ascendente dilatati (42-47 mm), calcificazione delle semilunari con
-ridotta apertura, valvola bicuspide. Gmed 24 mmHg, lieve insufficienza. (si allega referto)
-TEE 22/10/24: stenosi valvolare di grado severo, insufficienza aortica di grado moderata, calcificazione cuspidi
-grado 4 con verosimile bicuspidia aortica, ectasia del bulbo aortico 52 mm, giunzione sino tubulare 42 mm,
-aneurisma dell'aorta ascendente 56 mm, FE 52%. (di allega referto)
-All'ingresso paziente in classe NYHA IIb, nega angor, non riferisce palpitazioni, nega dispnea, nega sincopi,
-non edemi declivi, RS
-Esame obiettivo: toni cardiaci validi, ritmici, MV nella norma, no edemi declivi, addome trattabile.
-Esame obiettivo specialistico
-Compatibile con il quadro clinico. MUSt basso.</t>
-        </is>
-      </c>
-      <c r="BW2" t="n">
-        <v>6</v>
-      </c>
+          <t>PANTOPRAZOLO SODICO SESQUIDRATO PANTORC*28CPR GASTR 40MG 1cp ore 8, ACIDO ACETILSALICILICO CARDIOASPIRIN*30CPR GAST 100MG 1cp ore 14, BISOPROLOLO FUMARATO BISOPROLOLO ALM*28CPR RIV2,5MG 1cp ore e 1/2cp ore 20, FUROSEMIDE/SPIRONOLATTONE LASITONE*20CPS 25MG+37MG 1cp ore 8</t>
+        </is>
+      </c>
+      <c r="BV2" t="inlineStr"/>
+      <c r="BW2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1092,7 +967,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1138,15 +1013,30 @@
           <t>In esiti di SVAO (protesi biologica Inspiris Resilia n.29) e sostituzione di radice aortica con protesi vascolare (Vascutek n.32), protesi aortica normofunzionante, assenza di patologico rigurgito residuo. Funzione contrattile globale del ventricolo sinistro ai limiti inferiori di norma, in presenza di dissincronia settale. PAPS: 25 mmHg. Ventricolo destro di normali dimensioni endocavitarie, funzione contrattile globale lievemente ridotta. Vena cava inferiore di normali dimensioni con variabilità respiratoria conservata. Scollamento pericardico. CONCLUSIONI Buon esito SVAO e di sostituzione della radice aortica.</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>27/01/2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>In esiti di SVAO (protesi biologica Inspiris Resilia n.29) e sostituzione di radice aortica con protesi vascolare (Vascutek n.32), protesi aortica normofunzionante, assenza di patologico rigurgito residuo. Funzione contrattile globale del ventricolo sinistro ai limiti inferiori di norma, in presenza di dissincronia settale. PAPS: 25 mmHg. Ventricolo destro di normali dimensioni endocavitarie, funzione contrattile globale lievemente ridotta. Vena cava inferiore di normali dimensioni con variabilità respiratoria conservata. Scollamento pericardico. CONCLUSIONI Buon esito SVAO e di sostituzione della radice aortica.</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>2025003002</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>MASSIMO</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>RICCA</t>
         </is>
@@ -1344,4 +1234,170 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>n_cartella</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>nome</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>cognome</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>data_di_nascita</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>data_esame</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>coronarografia_text</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>coro_tc_stenosi50</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>coro_iva_stenosi50</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>coro_cx_stenosi50</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>coro_mo1_stenosi50</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>coro_mo2_stenosi50</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>coro_mo3_stenosi50</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>coro_int_stenosi50</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>coro_plcx_stenosi50</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>coro_dx_stenosi50</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>coro_pl_stenosi50</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>coro_ivp_stenosi50</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2025003002</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MASSIMO</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>RICCA</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17/02/1966</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>21/01/2025</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>CircoloCoronarico: Dominanzadestra
+CoronariaSinistra:
+-TroncoComune:breve,esentedalesioni.
+-Arteriadiscendenteanteriore(IVA):esentedalesioniaterosclerotichestenosanti.
+-Arteriacirconflessa(CX):esentedalesioniaterosclerotichestenosanti.
+CoronariaDestra:
+Coronariadestra(CDX):esentedalesioniaterosclerotichestenosanti.
+AltreOpacizzazioni:
+Aortografia:aneurisma dell'aorta ascendente; insufficienza valvolare aortica di grado severo.
+Conclusioni:
+Alberocoronaricoesentedalesionistenosanti.Aneurisma dell'aortaascendente;insufficienzavalvolareaorticadigrado
+severo.</t>
+        </is>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/export/output.xlsx
+++ b/export/output.xlsx
@@ -837,11 +837,7 @@
           <t>RICCA</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
           <t>3287351755</t>
@@ -871,90 +867,223 @@
       <c r="M2" t="b">
         <v>0</v>
       </c>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
+      <c r="N2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S2" t="b">
+        <v>0</v>
+      </c>
+      <c r="T2" t="b">
+        <v>0</v>
+      </c>
+      <c r="U2" t="b">
+        <v>0</v>
+      </c>
+      <c r="V2" t="b">
+        <v>0</v>
+      </c>
+      <c r="W2" t="b">
+        <v>0</v>
+      </c>
+      <c r="X2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="b">
+        <v>0</v>
+      </c>
       <c r="AA2" t="b">
         <v>1</v>
       </c>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
+      <c r="AB2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="b">
+        <v>0</v>
+      </c>
       <c r="AD2" t="n">
         <v>0</v>
       </c>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="b">
+        <v>0</v>
+      </c>
       <c r="AG2" t="n">
         <v>0</v>
       </c>
-      <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
-      <c r="AL2" t="inlineStr"/>
+      <c r="AH2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="b">
+        <v>0</v>
+      </c>
       <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr"/>
-      <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr"/>
-      <c r="AR2" t="inlineStr"/>
-      <c r="AS2" t="inlineStr"/>
-      <c r="AT2" t="inlineStr"/>
-      <c r="AU2" t="inlineStr"/>
-      <c r="AV2" t="inlineStr"/>
-      <c r="AW2" t="inlineStr"/>
-      <c r="AX2" t="inlineStr"/>
-      <c r="AY2" t="inlineStr"/>
-      <c r="AZ2" t="inlineStr"/>
-      <c r="BA2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>PANTOPRAZOLO SODICO SESQUIDRATO PANTORC*28CPR GASTR 40MG 1cp ore 8
+ACIDO ACETILSALICILICO CARDIOASPIRIN*30CPR GAST 100MG 1cp ore 14
+BISOPROLOLO FUMARATO BISOPROLOLO ALM*28CPR RIV2,5MG 1cp ore e 1/2cp ore 20
+FUROSEMIDE/SPIRONOLATTONE LASITONE*20CPS 25MG+37MG 1cp ore 8</t>
+        </is>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>25</v>
+      </c>
+      <c r="AR2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ2" t="inlineStr">
+        <is>
+          <t>Rx torace 20/01/2025:Campi polmonari normoespansi, senza addensamenti parenchimali a focolaio in atto bilateralmente. Ili accentuati di aspetto vascolare. uore nei limiti.Ectasia dell'aorta nel tratto ascendente. Non egni di versamento pleurico.
+Ecocardiogramma transtoracico 20/01/2025: Stenoinsufficienza valvolare aortica organica in valvola bicuspide (fused-type RCC-LCC tipo 1 con trei seni di Valsalva sec. Michelena et al.). Elevato burden calcifico asimmetrico, soprattutto a carico della cuspide conjoint e della commissura anteriore: -insufficienza di grado severo (VC-2D 6 mm; backflow olodiastolico in aorta discendente prossimale &gt; 0.2 m/s). -stenosi di grado moderato (V max 4.1 m/s; G medio 40 mmHg; DVI 0,3; AVAi 0,63 cm2/m2) in regime di high-flow (SVi 56 ml/m2). Radice aortica ai seni di Valsalva e alla giunzione sinotubulare dilatata. Aneurisma dell'aorta ascendente al tratto tubulare. Severa ipertrofia concentrica del ventricolo sinistro, severamente dilatato, con funzione sistolica globale lievemente ridotta in presenza di lieve ipocinesia diffusa e dissincronia da ritardo di conduzione. Alterata texture miocardica come da cardiopatia valvolare evoluta. Pattern diastolico mal valutabile in presenza di rigurgito aortico eccentrico diretto verso il lembo anteriore della mitrale. Insufficienza mitralica di grado lieve. Atrio sinistro non dilatato. Ventricolo destro di normali dimensioni e funzione sistolica. Lieve insufficienza tricuspidalica da prolasso del lembo settale. Normale pressione polmonare stimata. Diametro SL non dilatato (14 mm/mq). Vena cava inferiore di normali dimensioni con variabilità respiratoria conservata. Assenza di versamento pericardico. CONCLUSIONI Stenoinsufficienza aortica in valvola bicuspide: insufficienza severa, stenosi moderata in regime de high-flow. Severa ipertrofia e severa dilatazione del ventricolo sinistro con lieve riduzione della funzione sistolica in chiave di cardiopatia valvolare evoluta. Aneurisma dell'aorta ascendente tubulare.
+Coronarografia 21/01/2025: Circolo Coronarico: Dominanza destra Coronaria Sinistra: - Tronco Comune: breve, esente da lesioni. - Arteria discendente anteriore (IVA): esente da lesioni aterosclerotiche stenosanti. - Arteria circonflessa (CX): esente da lesioni aterosclerotiche stenosanti. Coronaria Destra: Coronaria destra (CDX): esente da lesioni aterosclerotiche stenosanti. Altre Opacizzazioni: Aortografia: aneurisma dell'aorta ascendente; insufficienza valvolare aortica di grado severo. Conclusioni: Albero coronarico esente da lesioni stenosanti. Aneurisma dell'aorta ascendente; insufficienza valvolare aortica di grado severo.</t>
+        </is>
+      </c>
+      <c r="BA2" t="inlineStr">
+        <is>
+          <t>Il decorso intra-operatorio è stato caratterizzato da:
+- necessità di supporto inotropo ad alto dosaggio con adrenalina per moderata disfunzione biventricolare e noradrenalina a medio dosaggio per vasoplegia;
+- necessità di supporto meccanico del circolo con IABP ( rimosso in data 23/01).
+Il decorso in terapia intensiva è stato caratterizzato da:
+- trasfusione di 1 unità di emazie concentrate;
+- regolare svezzzamento dal supporto inotropo, meccanico e respiratorio.
+Il decorso in reparto è stato caratterizzato da regolare svezzzamento dal supporto inotropo e respiratorio.
+Eseguito in data 26/01/25 nuovo tampone per SARS-CoV-2, risultato negativo
+L'ECG alla dimissione dimostra ritmo sinusale.
+Le ferite chirurgiche sono in ordine.
+L'Rx torace pre-dimissione non evidenzia patologia pleuro-parenchimale in atto.
+L'ecocardiogramma trans-toracico pre-dimissione evidenzia: In esiti di SVAO (protesi biologica Inspiris Resilia n.29) e sostituzione di radice aortica con protesi vascolare (Vascutek n.32), protesi aortica normofunzionante, assenza di patologico rigurgito residuo. Funzione contrattile globale del ventricolo sinistro ai limiti inferiori di norma, in presenza di dissincronia settale. PAPS: 25 mmHg. Ventricolo destro di normali dimensioni endocavitarie, funzione contrattile globale lievemente ridotta. Vena cava inferiore di normali dimensioni con variabilità respiratoria conservata. Scollamento pericardico.CONCLUSIONI Buon esito SVAO e di sostituzione della radice aortica</t>
+        </is>
+      </c>
       <c r="BB2" t="b">
         <v>1</v>
       </c>
       <c r="BC2" t="b">
         <v>1</v>
       </c>
-      <c r="BD2" t="inlineStr"/>
+      <c r="BD2" t="b">
+        <v>0</v>
+      </c>
       <c r="BE2" t="inlineStr"/>
-      <c r="BF2" t="inlineStr"/>
+      <c r="BF2" t="b">
+        <v>0</v>
+      </c>
       <c r="BG2" t="inlineStr"/>
-      <c r="BH2" t="inlineStr"/>
-      <c r="BI2" t="inlineStr"/>
-      <c r="BJ2" t="inlineStr"/>
+      <c r="BH2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BI2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ2" t="b">
+        <v>0</v>
+      </c>
       <c r="BK2" t="b">
         <v>1</v>
       </c>
-      <c r="BL2" t="inlineStr"/>
-      <c r="BM2" t="inlineStr"/>
-      <c r="BN2" t="inlineStr"/>
+      <c r="BL2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BN2" t="b">
+        <v>0</v>
+      </c>
       <c r="BO2" t="n">
         <v>0</v>
       </c>
-      <c r="BP2" t="n">
-        <v>6</v>
-      </c>
-      <c r="BQ2" t="inlineStr"/>
+      <c r="BP2" t="inlineStr"/>
+      <c r="BQ2" t="b">
+        <v>0</v>
+      </c>
       <c r="BR2" t="inlineStr"/>
       <c r="BS2" t="inlineStr"/>
-      <c r="BT2" t="inlineStr"/>
+      <c r="BT2" t="inlineStr">
+        <is>
+          <t>Gli esami di laboratorio di routine (emocromo, funzionalità renale ed epatica, elettroliti) alla dimissione sono risultati consoni con lo stato post-operatorio.</t>
+        </is>
+      </c>
       <c r="BU2" t="inlineStr">
         <is>
-          <t>PANTOPRAZOLO SODICO SESQUIDRATO PANTORC*28CPR GASTR 40MG 1cp ore 8, ACIDO ACETILSALICILICO CARDIOASPIRIN*30CPR GAST 100MG 1cp ore 14, BISOPROLOLO FUMARATO BISOPROLOLO ALM*28CPR RIV2,5MG 1cp ore e 1/2cp ore 20, FUROSEMIDE/SPIRONOLATTONE LASITONE*20CPS 25MG+37MG 1cp ore 8</t>
-        </is>
-      </c>
-      <c r="BV2" t="inlineStr"/>
-      <c r="BW2" t="inlineStr"/>
+          <t>PANTOPRAZOLO SODICO SESQUIDRATO PANTORC*28CPR GASTR 40MG 1cp ore 8
+ACIDO ACETILSALICILICO CARDIOASPIRIN*30CPR GAST 100MG 1cp ore 14
+BISOPROLOLO FUMARATO BISOPROLOLO ALM*28CPR RIV2,5MG 1cp ore e 1/2cp ore 20
+FUROSEMIDE/SPIRONOLATTONE LASITONE*20CPS 25MG+37MG 1cp ore 8</t>
+        </is>
+      </c>
+      <c r="BV2" t="inlineStr">
+        <is>
+          <t>Allergie: gamberi
+Anamnesi fisiologica:
+Familiarità positiva per CAD. Nega abitudine tabagica. Alvo e diuresi regolare.
+Anamnesi patologica prossima e remota:
+ernia inguinale destra, pollipectomia colonoscopica (benigna)
+Anamnesi cardiologica:
+in data 01/10/24 viene ricoverato presso l'ospedale di Imperia per intervento chirurgico di ernia inguinale
+destra. Durante gli accertamenti è stato fatto un ECG con riscontro elettrocardiografico di BBDx e pertanto
+consigliato di eseguire una visita cardiologica.
+In data 11/10/24 visita cardiologia al ospedale di Imperia con ecocardiogramma che dimostra: VS Td 59 mm,
+ipertrofia del setto IV 18 mm, Aorta bulbo e ascendente dilatati (42-47 mm), calcificazione delle semilunari con
+ridotta apertura, valvola bicuspide. Gmed 24 mmHg, lieve insufficienza. (si allega referto)
+TEE 22/10/24: stenosi valvolare di grado severo, insufficienza aortica di grado moderata, calcificazione cuspidi
+grado 4 con verosimile bicuspidia aortica, ectasia del bulbo aortico 52 mm, giunzione sino tubulare 42 mm,
+aneurisma dell'aorta ascendente 56 mm, FE 52%. (di allega referto)</t>
+        </is>
+      </c>
+      <c r="BW2" t="n">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1227,7 +1356,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Ministernotomia mediana al IV spazio intercostale. Incisione longitudinale del pericardio. L'aorta appare aneurismatica in corrispondenza della radice aortica e del tronco tubulare fino all'origine del tronco anonimo. Cannulazione del tronco brachiocefalico e dell'atrio destro per la conduzione della circolazione extracorporea. Posizionamento di un vent nella vena polmonare superiore destra. In bypass cardiopolmonare totale ipotermico si clampa l'aorta e dopo aortotomia trasversale, si infonde soluzione cardioplegica ematica fredda (Del Nido) per via anterograda selettivamente negli osti coronarici. Rimozione dell'aorta ascendente e della radice aortica. La valvola aortica appare bicuspide ed insufficiente per retrazione dei lembi e mancata coaptazione centrale. Si procede dunque alla rimozione della valvola aortica nativa ed alla preparazione dei bottoni aortici contenenti gli osti delle coronarie. Impianto di bioprotesi valvolare aortica (Inspiris Resilia n.29) su protesi tubulare vascolare (Gelweave Vascutek 32 mm) mediante sutura in polipropilene 2-0. Anastomosi prossimale del condotto valvolato a livello del piano valvolare mediante sutura continua di prolene 2-0. Confezionamento del bottone dell'ostio coronarico sinistro sul tubo valvolato mediante una sutura continua di polipropilene 5-0. Si esegue l'anastomosi distale tra tubo valvolato e moncone aortico usando una sutura continua di polipropilene 4-0. In ultimo si confeziona il bottone coronarico destro sul tubo valvolato usando una sutura continua di polipropilene 5-0. Posizionamento di vent aortico e declampaggio aortico dopo deareazione delle cavita' cardiache. Il cuore riprende a battere in ritmo sinusale. Posizionamento degli elettrodi epicardici temporanei ventricolari. Progressivo svezzamento dalla CEC in normotermia con necessità di supporto inotropo con adrenalina a medio dosaggio e supporto meccanico mediante contropulsatore aortico. Decannulazione e somministrazione di solfato di protamina. Accurata e prolungata revisione dell'emostasi. Posizionamento di due tubi di drenaggio (retrocardiaco e retrosternale). Chiusura a strati della parete toracica secondo routine.</t>
+          <t>Ministernotomia mediana al IV spazio intercostale. Incisione longitudinale del pericardio. L'aorta appare aneurismatica in corrispondenza della radice aortica e del tratto tubulare fino all'origine del tronco anonimo. Cannulazione del tronco brachiocefalico e dell'atrio destro per la conduzione della circolazione extracorporea. Posizionamento di un vent nella vena polmonare superiore destra. In bypass cardiopolmonare totale ipotermico si clampa l'aorta e dopo aortotomia trasversale, si infonde soluzione cardioplegica ematica fredda (Del Nido) per via anterograda selettivamente negli osti coronarici. Rimozione dell'aorta ascendente e della radice aortica. La valvola aortica appare bicuspide ed insufficiente per retrazione dei lembi e mancata coaptazione centrale. Si procede dunque alla rimozione della valvola aortica nativa ed alla preparazione dei bottoni aortici contenenti gli osti delle coronarie. Impianto di bioprotesi valvolare aortica (Inspiris Resilia n.29) su protesi tubulare vascolare (Gelweave Vascutek 32 mm) mediante sutura in polipropilene 2-0. Anastomosi prossimale del condotto valvolato a livello del piano valvolare mediante sutura continua di prolene 2-0. Confezionamento del bottone dell'ostio coronarico sinistro sul tubo valvolato mediante una sutura continua di polipropilene 5-0. Si esegue l'anastomosi distale tra tubo valvolato e moncone aortico usando una sutura continua di polipropilene 4-0. In ultimo si confeziona il bottone coronarico destro sul tubo valvolato usando una sutura continua di polipropilene 5-0. Posizionamento di vent aortico e declampaggio aortico dopo deareazione delle cavita' cardiache. Il cuore riprende a battere in ritmo sinusale. Posizionamento degli elettrodi epicardici temporanei ventricolari. Progressivo svezzamento dalla CEC in normotermia con necessità di supporto inotropo con adrenalina a medio dosaggio e supporto meccanico mediante contropulsatore aortico. Decannulazione e somministrazione di solfato di protamina. Accurata e prolungata revisione dell'emostasi. Posizionamento di due tubi di drenaggio (retrocardiaco e retrosternale). Chiusura a strati della parete toracica secondo routine.</t>
         </is>
       </c>
     </row>
